--- a/Hardware/UPD_PCB/Computations/buck_converter.xlsx
+++ b/Hardware/UPD_PCB/Computations/buck_converter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dries\Desktop\git\AI.R-ATV\Hardware\UPD_PCB\Computations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC2D593-3C9B-4563-ACBF-A136F8F9CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CACCE9-C4C7-4AC9-B995-8222F6F697B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4B964BCB-4FB7-4901-A42B-2621AA10B7DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>Vout</t>
   </si>
@@ -222,6 +222,39 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>INA219 calculations</t>
+  </si>
+  <si>
+    <t>Max current</t>
+  </si>
+  <si>
+    <t>Current LSB</t>
+  </si>
+  <si>
+    <t>Current measurement</t>
+  </si>
+  <si>
+    <t>Mv/A</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current  </t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>LED current measurement</t>
+  </si>
+  <si>
+    <t>Imax</t>
+  </si>
+  <si>
+    <t>Resistor</t>
   </si>
 </sst>
 </file>
@@ -596,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -625,10 +658,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,9 +678,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -977,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4220F6AD-D1C3-4C59-93DB-E2C5A9F2A0C6}">
-  <dimension ref="B1:T24"/>
+  <dimension ref="B1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1001,29 +1038,29 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="F2" s="26" t="s">
+      <c r="C2" s="28"/>
+      <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="27"/>
-      <c r="J2" s="26" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="28"/>
+      <c r="J2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="27"/>
-      <c r="N2" s="26" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="28"/>
+      <c r="N2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="27"/>
-      <c r="R2" s="26" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="28"/>
+      <c r="R2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="27"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="21"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
@@ -1213,11 +1250,11 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
@@ -1345,21 +1382,21 @@
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="27"/>
-      <c r="J15" s="28" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="28"/>
+      <c r="J15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-      <c r="N15" s="26" t="s">
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="N15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="31"/>
-      <c r="P15" s="27"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
@@ -1581,12 +1618,113 @@
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
     </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F25" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="J25" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="N25" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26">
+        <v>2E-3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26">
+        <v>45</v>
+      </c>
+      <c r="L26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27">
+        <v>3.5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27">
+        <v>2.585</v>
+      </c>
+      <c r="N27" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27">
+        <v>19</v>
+      </c>
+      <c r="P27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28">
+        <f>G27/(2^15)</f>
+        <v>1.068115234375E-4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28">
+        <f>(K27-(5.013/2))/0.045</f>
+        <v>1.7444444444444449</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28">
+        <f>O27/O26</f>
+        <v>3800</v>
+      </c>
+      <c r="P28" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="N25:P25"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="N2:P2"/>
@@ -1600,14 +1738,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="403a2287-8c7c-4a34-90c2-dbf3c4c1f054" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002223319B6B573345B80463C8BA005F6D" ma:contentTypeVersion="6" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="b41b03fd4873277aac50c366e6e24fb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="403a2287-8c7c-4a34-90c2-dbf3c4c1f054" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8639b9a5ca5a44d7a5aeb80dad9e886" ns3:_="">
     <xsd:import namespace="403a2287-8c7c-4a34-90c2-dbf3c4c1f054"/>
@@ -1763,6 +1893,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="403a2287-8c7c-4a34-90c2-dbf3c4c1f054" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1773,22 +1911,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B7A3D88-0D14-4A68-A3DA-4E95883CF175}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="403a2287-8c7c-4a34-90c2-dbf3c4c1f054"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D2F193B-74DC-4E6D-9C0A-4D5F090DCF00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1806,6 +1928,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B7A3D88-0D14-4A68-A3DA-4E95883CF175}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="403a2287-8c7c-4a34-90c2-dbf3c4c1f054"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D6BF2D-DFAA-4729-8DDC-2D8D8E787D78}">
   <ds:schemaRefs>

--- a/Hardware/UPD_PCB/Computations/buck_converter.xlsx
+++ b/Hardware/UPD_PCB/Computations/buck_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dries\Desktop\git\AI.R-ATV\Hardware\UPD_PCB\Computations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CACCE9-C4C7-4AC9-B995-8222F6F697B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20554F1-6733-46B0-9F59-D19579EA9BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4B964BCB-4FB7-4901-A42B-2621AA10B7DC}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15440" xr2:uid="{4B964BCB-4FB7-4901-A42B-2621AA10B7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
   <si>
     <t>Vout</t>
   </si>
@@ -658,17 +658,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,6 +673,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,6 +693,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68202</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536359</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>94291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E780E4C-56BE-5861-9BD3-3D37214B945B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678542" y="5687258"/>
+          <a:ext cx="5785511" cy="1943805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1014,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4220F6AD-D1C3-4C59-93DB-E2C5A9F2A0C6}">
-  <dimension ref="B1:T28"/>
+  <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="103" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1038,29 +1085,29 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="28"/>
-      <c r="J2" s="27" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="27"/>
+      <c r="J2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="28"/>
-      <c r="N2" s="27" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="27"/>
+      <c r="N2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="28"/>
-      <c r="R2" s="27" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="27"/>
+      <c r="R2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="28"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="21"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
@@ -1250,11 +1297,11 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
@@ -1382,21 +1429,21 @@
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="28"/>
-      <c r="J15" s="31" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="27"/>
+      <c r="J15" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="N15" s="27" t="s">
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="N15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="28"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
@@ -1613,111 +1660,126 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="F25" s="30" t="s">
+    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="J25" s="30" t="s">
+      <c r="G25" s="31"/>
+      <c r="H25" s="27"/>
+      <c r="J25" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="N25" s="30" t="s">
+      <c r="K25" s="31"/>
+      <c r="L25" s="27"/>
+      <c r="N25" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="27"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="5">
         <v>2E-3</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <v>45</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>3.5</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="2">
         <v>2.585</v>
       </c>
-      <c r="N27" t="s">
+      <c r="L27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O27">
-        <v>19</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="O27" s="2">
+        <v>40</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="F28" t="s">
+    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="13">
         <f>G27/(2^15)</f>
         <v>1.068115234375E-4</v>
       </c>
-      <c r="J28" t="s">
+      <c r="H28" s="14"/>
+      <c r="J28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="13">
         <f>(K27-(5.013/2))/0.045</f>
         <v>1.7444444444444449</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="L28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="13">
         <f>O27/O26</f>
-        <v>3800</v>
-      </c>
-      <c r="P28" t="s">
+        <v>8000</v>
+      </c>
+      <c r="P28" s="14" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="B2:C2"/>
@@ -1725,19 +1787,23 @@
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="N25:P25"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="403a2287-8c7c-4a34-90c2-dbf3c4c1f054" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002223319B6B573345B80463C8BA005F6D" ma:contentTypeVersion="6" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="b41b03fd4873277aac50c366e6e24fb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="403a2287-8c7c-4a34-90c2-dbf3c4c1f054" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8639b9a5ca5a44d7a5aeb80dad9e886" ns3:_="">
     <xsd:import namespace="403a2287-8c7c-4a34-90c2-dbf3c4c1f054"/>
@@ -1893,14 +1959,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="403a2287-8c7c-4a34-90c2-dbf3c4c1f054" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1911,6 +1969,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B7A3D88-0D14-4A68-A3DA-4E95883CF175}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="403a2287-8c7c-4a34-90c2-dbf3c4c1f054"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D2F193B-74DC-4E6D-9C0A-4D5F090DCF00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1928,22 +2002,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B7A3D88-0D14-4A68-A3DA-4E95883CF175}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="403a2287-8c7c-4a34-90c2-dbf3c4c1f054"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D6BF2D-DFAA-4729-8DDC-2D8D8E787D78}">
   <ds:schemaRefs>

--- a/Hardware/UPD_PCB/Computations/buck_converter.xlsx
+++ b/Hardware/UPD_PCB/Computations/buck_converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dries\Desktop\git\AI.R-ATV\Hardware\UPD_PCB\Computations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20554F1-6733-46B0-9F59-D19579EA9BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3213A-AEB4-4752-951E-D5E8C8279047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15440" xr2:uid="{4B964BCB-4FB7-4901-A42B-2621AA10B7DC}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{4B964BCB-4FB7-4901-A42B-2621AA10B7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,11 +678,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4220F6AD-D1C3-4C59-93DB-E2C5A9F2A0C6}">
   <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="103" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,29 +1085,29 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="F2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="F2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="27"/>
-      <c r="J2" s="26" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="27"/>
-      <c r="N2" s="26" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="N2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="27"/>
-      <c r="R2" s="26" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="30"/>
+      <c r="R2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="27"/>
+      <c r="S2" s="30"/>
       <c r="T2" s="21"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="K3" s="5">
         <f>G4</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>12</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="O4" s="2">
         <f>K3</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>12</v>
@@ -1207,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="2">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>14</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="K6" s="13">
         <f>K3/(K4*K5)</f>
-        <v>0.7142857142857143</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="L6" s="14"/>
       <c r="N6" s="1" t="s">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="G7" s="10">
         <f xml:space="preserve"> G4*G5</f>
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>15</v>
@@ -1290,24 +1290,24 @@
       </c>
       <c r="O7" s="2">
         <f>K6</f>
-        <v>0.7142857142857143</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="10">
         <f>G7/G3</f>
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>15</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="O8" s="13">
         <f>(O4*(O3-O4))/(O5*O6*O3)</f>
-        <v>0.77922077922077915</v>
+        <v>0.64935064935064923</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>14</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="G9" s="10">
         <f>G8-G7</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>15</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G10" s="10">
         <f>G9*G6</f>
-        <v>1018.5</v>
+        <v>291</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>17</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="G11" s="13">
         <f>25+G10</f>
-        <v>1043.5</v>
+        <v>316</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>17</v>
@@ -1429,21 +1429,21 @@
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="27"/>
-      <c r="J15" s="28" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="J15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-      <c r="N15" s="26" t="s">
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="N15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="31"/>
-      <c r="P15" s="27"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="O16" s="18">
         <f>O8</f>
-        <v>0.77922077922077915</v>
+        <v>0.64935064935064923</v>
       </c>
       <c r="P16" s="19" t="s">
         <v>14</v>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G17" s="2">
         <f>G4</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="G18" s="2">
         <f>G5</f>
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>14</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="O18" s="13">
         <f>O17-O16/2</f>
-        <v>1.6103896103896105</v>
+        <v>1.6753246753246753</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>14</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="G20" s="20">
         <f>(G17*(G16-G17))/(0.3*G18*G19*G16)</f>
-        <v>2.4489795918367348E-5</v>
+        <v>3.5714285714285717E-5</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>13</v>
@@ -1666,21 +1666,21 @@
       <c r="D24" s="25"/>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="27"/>
-      <c r="J25" s="26" t="s">
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="J25" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="27"/>
-      <c r="N25" s="26" t="s">
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
+      <c r="N25" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="31"/>
-      <c r="P25" s="27"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F26" s="4" t="s">
@@ -1734,7 +1734,7 @@
         <v>67</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>12</v>
@@ -1759,19 +1759,19 @@
       <c r="L28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N28" s="33" t="s">
+      <c r="N28" s="27" t="s">
         <v>72</v>
       </c>
       <c r="O28" s="13">
         <f>O27/O26</f>
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K36" s="32"/>
+      <c r="K36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Hardware/UPD_PCB/Computations/buck_converter.xlsx
+++ b/Hardware/UPD_PCB/Computations/buck_converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dries\Desktop\git\AI.R-ATV\Hardware\UPD_PCB\Computations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3213A-AEB4-4752-951E-D5E8C8279047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF4609-2595-419F-BD51-996BFB6F024A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{4B964BCB-4FB7-4901-A42B-2621AA10B7DC}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15440" xr2:uid="{4B964BCB-4FB7-4901-A42B-2621AA10B7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>Vout</t>
   </si>
@@ -255,6 +255,27 @@
   </si>
   <si>
     <t>Resistor</t>
+  </si>
+  <si>
+    <t>21.2mv</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Starting Amp</t>
+  </si>
+  <si>
+    <t>Iin</t>
+  </si>
+  <si>
+    <t>Real Efficiency</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Ambiant</t>
   </si>
 </sst>
 </file>
@@ -695,6 +716,1663 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of buck converter under load</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5V</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$3:$AB$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9.6909999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35859999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9889999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$3:$AF$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>85.343921782404536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.984408063258726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.843516592479233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.016237888406266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.742435379521908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.555669696954567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.620374369463704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.578583705622378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.73189554970989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.024122953558305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.904249218325376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.677036628590258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.561413094642575</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.581868804989426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92.57573917772018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.062684194154173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDFD-44B0-842A-2AB2BACABBD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>12V</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$23:$AB$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.272</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.468</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$19:$AF$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>91.349512498860975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.704267887206058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.512636628323236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.963381222853315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.892304265508415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.785499498830603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.220526610283443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.558415964935122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.588471138538949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.314365097508229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.455395923822238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.076329819412507</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.34859115714444</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.793542836643397</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.985159401788266</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.620462237975573</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.412544302719411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93.053465286006187</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.648914304757341</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.634120689798905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDFD-44B0-842A-2AB2BACABBD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>16V</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$39:$AB$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.036</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$39:$AF$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>93.370731281695512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.283615173756687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.762006410018444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.404366017277624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.887579493394199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.471657006845192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.659558802728867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.342517155413915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.163894928772137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.62555486611619</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.964515688120755</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.355083429964026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.316267623375779</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.095169520102601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDFD-44B0-842A-2AB2BACABBD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>19V</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$53:$AB$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.266</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$53:$AF$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>94.081673437397555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.378233967111896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.45475807186466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.989695532963154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.933083271648584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.395510158624106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.94563214625876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.561430959575759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.081705798378039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.879160686676471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.542190143802713</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.716624942690657</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.379419939702743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.115382219529153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDFD-44B0-842A-2AB2BACABBD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>24V</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$67:$AB$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$67:$AF$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>97.147974904406595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.599825950473587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.18705015753271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.501894664786946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.568773577605697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.04617252167283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.250368024937401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.088349940711311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.098214014518732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.040195980401947</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.768295155221253</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.467483475290024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.727091246381022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.943962160255467</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.01303690412027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EDFD-44B0-842A-2AB2BACABBD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2080920191"/>
+        <c:axId val="2080920671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2080920191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>applied</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> load (a)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080920671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2080920671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080920191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -706,7 +2384,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>536359</xdr:colOff>
+      <xdr:colOff>520858</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>94291</xdr:rowOff>
     </xdr:to>
@@ -739,6 +2417,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>137486</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>127838</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78270</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1341AAF-E5DD-5C7E-16D1-6F6CEB8342A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1061,30 +2775,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4220F6AD-D1C3-4C59-93DB-E2C5A9F2A0C6}">
-  <dimension ref="B1:T36"/>
+  <dimension ref="B1:AH81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1796875" customWidth="1"/>
     <col min="11" max="11" width="11.26953125" customWidth="1"/>
-    <col min="12" max="12" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.7265625" customWidth="1"/>
     <col min="19" max="19" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="12.453125" customWidth="1"/>
+    <col min="24" max="25" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
@@ -1109,8 +2831,44 @@
       </c>
       <c r="S2" s="30"/>
       <c r="T2" s="21"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="W2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -1153,8 +2911,50 @@
       <c r="S3" s="6">
         <v>0.16384000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="W3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="X3">
+        <v>29.93</v>
+      </c>
+      <c r="Y3">
+        <v>5.008</v>
+      </c>
+      <c r="Z3">
+        <v>50.2</v>
+      </c>
+      <c r="AA3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AB3">
+        <v>9.6909999999999996E-2</v>
+      </c>
+      <c r="AC3">
+        <f>X$3*AA3</f>
+        <v>0.95776000000000006</v>
+      </c>
+      <c r="AD3">
+        <f>Y$3*AB3</f>
+        <v>0.48532527999999997</v>
+      </c>
+      <c r="AE3">
+        <f>AD3/AC3*100</f>
+        <v>50.672953558302702</v>
+      </c>
+      <c r="AF3">
+        <f>AD3/(X$3*(AA3-W$3))*100</f>
+        <v>85.343921782404536</v>
+      </c>
+      <c r="AG3">
+        <f>((X$3*AA3-W$3)-AD3)*6.2</f>
+        <v>2.8484952640000007</v>
+      </c>
+      <c r="AH3">
+        <f>AG3+25</f>
+        <v>27.848495264</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1195,8 +2995,41 @@
       <c r="S4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z4">
+        <v>38</v>
+      </c>
+      <c r="AA4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AB4">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC18" si="0">X$3*AA4</f>
+        <v>1.10741</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD18" si="1">Y$3*AB4</f>
+        <v>0.63200960000000006</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE19" si="2">AD4/AC4*100</f>
+        <v>57.070967392384034</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF19" si="3">AD4/(X$3*(AA4-W$3))*100</f>
+        <v>87.984408063258726</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG67" si="4">((X$3*AA4-W$3)-AD4)*6.2</f>
+        <v>2.8668824800000006</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH67" si="5">AG4+25</f>
+        <v>27.866882480000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1238,8 +3071,41 @@
         <f>S3/S4</f>
         <v>8.1920000000000007E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z5">
+        <v>28.6</v>
+      </c>
+      <c r="AA5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AB5">
+        <v>0.1646</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>1.3169199999999999</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="1"/>
+        <v>0.82431679999999996</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="2"/>
+        <v>62.594295781064915</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="3"/>
+        <v>88.843516592479233</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="4"/>
+        <v>2.9735398399999999</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="5"/>
+        <v>27.973539840000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1273,8 +3139,41 @@
         <f>S3*S4</f>
         <v>0.32768000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z6">
+        <v>22.2</v>
+      </c>
+      <c r="AA6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AB6">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>1.58629</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="1"/>
+        <v>1.0657023999999999</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="2"/>
+        <v>67.182066330872658</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="3"/>
+        <v>89.016237888406266</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="4"/>
+        <v>3.1470431200000011</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="5"/>
+        <v>28.147043119999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -1295,8 +3194,41 @@
       <c r="P7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z7">
+        <v>15.3</v>
+      </c>
+      <c r="AA7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AB7">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>2.0352399999999999</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="1"/>
+        <v>1.4608336000000002</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="2"/>
+        <v>71.776969792260388</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="3"/>
+        <v>88.742435379521908</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="4"/>
+        <v>3.4807196799999991</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="5"/>
+        <v>28.48071968</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="31" t="s">
         <v>48</v>
       </c>
@@ -1322,8 +3254,41 @@
       <c r="P8" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="Z8">
+        <v>12</v>
+      </c>
+      <c r="AA8">
+        <v>0.08</v>
+      </c>
+      <c r="AB8">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>2.3944000000000001</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="1"/>
+        <v>1.7958687999999998</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>75.002873371199456</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="3"/>
+        <v>89.555669696954567</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="4"/>
+        <v>3.6302934400000022</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="5"/>
+        <v>28.630293440000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
         <v>51</v>
       </c>
@@ -1343,8 +3308,41 @@
       <c r="H9" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="Z9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AA9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AB9">
+        <v>0.43430000000000002</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>2.84335</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="1"/>
+        <v>2.1749744</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="2"/>
+        <v>76.493375771537103</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="3"/>
+        <v>88.620374369463704</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="4"/>
+        <v>4.0633287200000012</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="5"/>
+        <v>29.063328720000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1364,8 +3362,41 @@
       <c r="H10" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z10">
+        <v>7.7</v>
+      </c>
+      <c r="AA10">
+        <v>0.11</v>
+      </c>
+      <c r="AB10">
+        <v>0.51929999999999998</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>3.2923</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="1"/>
+        <v>2.6006543999999998</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>78.992023813139738</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="3"/>
+        <v>89.578583705622378</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="4"/>
+        <v>4.2076027200000023</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="5"/>
+        <v>29.207602720000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1385,8 +3416,41 @@
       <c r="H11" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="Z11">
+        <v>6.4</v>
+      </c>
+      <c r="AA11">
+        <v>0.155</v>
+      </c>
+      <c r="AB11">
+        <v>0.77</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>4.6391499999999999</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="1"/>
+        <v>3.85616</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>83.122123664895511</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="3"/>
+        <v>90.73189554970989</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="4"/>
+        <v>4.7739380000000002</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="5"/>
+        <v>29.773938000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1396,8 +3460,41 @@
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>0.188</v>
+      </c>
+      <c r="AB12">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="0"/>
+        <v>5.6268399999999996</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="1"/>
+        <v>4.7676159999999994</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="2"/>
+        <v>84.72990168549309</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="3"/>
+        <v>91.024122953558305</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="4"/>
+        <v>5.2465888000000023</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="5"/>
+        <v>30.246588800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1407,8 +3504,41 @@
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z13">
+        <v>4.3</v>
+      </c>
+      <c r="AA13">
+        <v>0.214</v>
+      </c>
+      <c r="AB13">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>6.4050199999999995</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="1"/>
+        <v>5.4687360000000007</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="2"/>
+        <v>85.382028471417755</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="3"/>
+        <v>90.904249218325376</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="4"/>
+        <v>5.7243607999999933</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="5"/>
+        <v>30.724360799999992</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1418,8 +3548,41 @@
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z14">
+        <v>3.1</v>
+      </c>
+      <c r="AA14">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AB14">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>8.949069999999999</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>7.8475359999999998</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="2"/>
+        <v>87.69107851430374</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="3"/>
+        <v>91.677036628590258</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="4"/>
+        <v>6.7489107999999955</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="5"/>
+        <v>31.748910799999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1444,8 +3607,41 @@
       </c>
       <c r="O15" s="29"/>
       <c r="P15" s="30"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="Z15">
+        <v>2.8</v>
+      </c>
+      <c r="AA15">
+        <v>0.375</v>
+      </c>
+      <c r="AB15">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>11.223749999999999</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>9.5953280000000003</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
+        <v>85.491284107361636</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="3"/>
+        <v>88.561413094642575</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="4"/>
+        <v>10.015616399999994</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="5"/>
+        <v>35.015616399999992</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1484,8 +3680,41 @@
       <c r="P16" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Z16">
+        <v>1.9</v>
+      </c>
+      <c r="AA16">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="AB16">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="0"/>
+        <v>13.85759</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="1"/>
+        <v>12.334704</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>89.010455641998348</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="3"/>
+        <v>91.581868804989426</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="4"/>
+        <v>9.3612931999999986</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="5"/>
+        <v>34.361293199999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
@@ -1524,8 +3753,41 @@
       <c r="P17" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z17">
+        <v>1.8</v>
+      </c>
+      <c r="AA17">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="AB17">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="0"/>
+        <v>13.64808</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="1"/>
+        <v>12.274608000000001</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="2"/>
+        <v>89.936518543267624</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="3"/>
+        <v>92.57573917772018</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>8.4349263999999984</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="5"/>
+        <v>33.434926399999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
@@ -1565,13 +3827,46 @@
       <c r="P18" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z18">
+        <v>1.2</v>
+      </c>
+      <c r="AA18">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="AB18">
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="0"/>
+        <v>22.088339999999999</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="1"/>
+        <v>19.976911999999999</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="2"/>
+        <v>90.440983795070167</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="3"/>
+        <v>92.062684194154173</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="4"/>
+        <v>13.01025359999999</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="5"/>
+        <v>38.010253599999992</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" ref="C19:C21" si="0">C14*C$9</f>
+        <f t="shared" ref="C19:C21" si="6">C14*C$9</f>
         <v>1280</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -1597,13 +3892,49 @@
       <c r="L19" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y19">
+        <v>12.03</v>
+      </c>
+      <c r="Z19">
+        <v>59.5</v>
+      </c>
+      <c r="AA19">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>0.2</v>
+      </c>
+      <c r="AC19">
+        <f>X$3*AA19</f>
+        <v>3.0229300000000001</v>
+      </c>
+      <c r="AD19">
+        <f>Y$19*AB19</f>
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="2"/>
+        <v>79.591654454453135</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="3"/>
+        <v>91.349512498860975</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="4"/>
+        <v>3.7443660000000007</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="5"/>
+        <v>28.744365999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>960</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1619,20 +3950,86 @@
       <c r="H20" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Z20">
+        <v>50.5</v>
+      </c>
+      <c r="AA20">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AB20">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" ref="AC20:AC38" si="7">X$3*AA20</f>
+        <v>3.4718800000000001</v>
+      </c>
+      <c r="AD20">
+        <f>Y$19*AB20</f>
+        <v>2.8270499999999998</v>
+      </c>
+      <c r="AE20">
+        <f>AD20/AC20*100</f>
+        <v>81.427065451570897</v>
+      </c>
+      <c r="AF20">
+        <f>AD20/(X$3*(AA20-W$3))*100</f>
+        <v>91.704267887206058</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="4"/>
+        <v>3.917346000000002</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="5"/>
+        <v>28.917346000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Z21">
+        <v>46.5</v>
+      </c>
+      <c r="AA21">
+        <v>0.125</v>
+      </c>
+      <c r="AB21">
+        <v>0.255</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="7"/>
+        <v>3.74125</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" ref="AD21:AD38" si="8">Y$19*AB21</f>
+        <v>3.06765</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" ref="AE21:AE38" si="9">AD21/AC21*100</f>
+        <v>81.995322418977608</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" ref="AF21:AF38" si="10">AD21/(X$3*(AA21-W$3))*100</f>
+        <v>91.512636628323236</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="4"/>
+        <v>4.0957200000000009</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="5"/>
+        <v>29.09572</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
@@ -1643,8 +4040,41 @@
       <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Z22">
+        <v>41.4</v>
+      </c>
+      <c r="AA22">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AB22">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="7"/>
+        <v>4.1303400000000003</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="8"/>
+        <v>3.4405799999999997</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="9"/>
+        <v>83.300164151135249</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="10"/>
+        <v>91.963381222853315</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="4"/>
+        <v>4.1959120000000043</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="5"/>
+        <v>29.195912000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B23" s="22" t="s">
         <v>49</v>
       </c>
@@ -1659,13 +4089,79 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z23">
+        <v>38</v>
+      </c>
+      <c r="AA23">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AB23">
+        <v>0.312</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="7"/>
+        <v>4.42964</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="8"/>
+        <v>3.7533599999999998</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="9"/>
+        <v>84.732845107051574</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="10"/>
+        <v>92.892304265508415</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="4"/>
+        <v>4.1123360000000018</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="5"/>
+        <v>29.112336000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z24">
+        <v>34.5</v>
+      </c>
+      <c r="AA24">
+        <v>0.16</v>
+      </c>
+      <c r="AB24">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="7"/>
+        <v>4.7888000000000002</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="8"/>
+        <v>4.12629</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="9"/>
+        <v>86.16542766455062</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="10"/>
+        <v>93.785499498830603</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="4"/>
+        <v>4.0269620000000019</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="5"/>
+        <v>29.026962000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F25" s="28" t="s">
         <v>62</v>
       </c>
@@ -1681,8 +4177,41 @@
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Z25">
+        <v>30.6</v>
+      </c>
+      <c r="AA25">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AB25">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="7"/>
+        <v>5.3574699999999993</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="8"/>
+        <v>4.6315499999999998</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="9"/>
+        <v>86.450320767078509</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="10"/>
+        <v>93.220526610283443</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="4"/>
+        <v>4.4201039999999976</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="5"/>
+        <v>29.420103999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.35">
       <c r="F26" s="4" t="s">
         <v>58</v>
       </c>
@@ -1710,8 +4239,41 @@
       <c r="P26" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Z26">
+        <v>28.6</v>
+      </c>
+      <c r="AA26">
+        <v>0.19</v>
+      </c>
+      <c r="AB26">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="7"/>
+        <v>5.6867000000000001</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="8"/>
+        <v>4.9563599999999992</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="9"/>
+        <v>87.157050662071128</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="10"/>
+        <v>93.558415964935122</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="4"/>
+        <v>4.4475080000000062</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="5"/>
+        <v>29.447508000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.35">
       <c r="F27" s="1" t="s">
         <v>63</v>
       </c>
@@ -1739,8 +4301,41 @@
       <c r="P27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z27">
+        <v>24.7</v>
+      </c>
+      <c r="AA27">
+        <v>0.217</v>
+      </c>
+      <c r="AB27">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="7"/>
+        <v>6.4948100000000002</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="8"/>
+        <v>5.7142499999999998</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="9"/>
+        <v>87.981788535769326</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="10"/>
+        <v>93.588471138538949</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="4"/>
+        <v>4.7588720000000029</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="5"/>
+        <v>29.758872000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F28" s="12" t="s">
         <v>64</v>
       </c>
@@ -1769,9 +4364,1908 @@
       <c r="P28" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="Z28">
+        <v>22</v>
+      </c>
+      <c r="AA28">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AB28">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="7"/>
+        <v>7.2131299999999996</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="8"/>
+        <v>6.4360499999999998</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="9"/>
+        <v>89.226868225028525</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="10"/>
+        <v>94.314365097508229</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="4"/>
+        <v>4.7372959999999997</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="5"/>
+        <v>29.737296000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Z29">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AA29">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AB29">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="7"/>
+        <v>8.17089</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="8"/>
+        <v>7.3503299999999996</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="9"/>
+        <v>89.957519927449752</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="10"/>
+        <v>94.455395923822238</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="4"/>
+        <v>5.0068720000000031</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="5"/>
+        <v>30.006872000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Z30">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AA30">
+        <v>0.314</v>
+      </c>
+      <c r="AB30">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="7"/>
+        <v>9.3980200000000007</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="8"/>
+        <v>8.5653599999999983</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="9"/>
+        <v>91.14004864854509</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="10"/>
+        <v>95.076329819412507</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="4"/>
+        <v>5.0818920000000158</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="5"/>
+        <v>30.081892000000018</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Z31">
+        <v>13.6</v>
+      </c>
+      <c r="AA31">
+        <v>0.373</v>
+      </c>
+      <c r="AB31">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="7"/>
+        <v>11.16389</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="8"/>
+        <v>10.273619999999999</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="9"/>
+        <v>92.025449910380701</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="10"/>
+        <v>95.34859115714444</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="4"/>
+        <v>5.4390740000000068</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="5"/>
+        <v>30.439074000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z32">
+        <v>12</v>
+      </c>
+      <c r="AA32">
+        <v>0.42</v>
+      </c>
+      <c r="AB32">
+        <v>0.97</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="7"/>
+        <v>12.570599999999999</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="8"/>
+        <v>11.669099999999998</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="9"/>
+        <v>92.828504605985401</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="10"/>
+        <v>95.793542836643397</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="4"/>
+        <v>5.5087000000000037</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="5"/>
+        <v>30.508700000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z33">
+        <v>10.3</v>
+      </c>
+      <c r="AA33">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AB33">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="7"/>
+        <v>14.426259999999999</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="8"/>
+        <v>13.473600000000001</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="9"/>
+        <v>93.396348048627999</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="10"/>
+        <v>95.985159401788266</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="4"/>
+        <v>5.825891999999989</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="5"/>
+        <v>30.825891999999989</v>
+      </c>
+    </row>
+    <row r="34" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z34">
+        <v>9.1</v>
+      </c>
+      <c r="AA34">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AB34">
+        <v>1.272</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="7"/>
+        <v>16.910449999999997</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="8"/>
+        <v>15.302159999999999</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="9"/>
+        <v>90.489371956393839</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="10"/>
+        <v>92.620462237975573</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="4"/>
+        <v>9.8907979999999807</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="5"/>
+        <v>34.890797999999982</v>
+      </c>
+    </row>
+    <row r="35" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z35">
+        <v>8.1</v>
+      </c>
+      <c r="AA35">
+        <v>0.625</v>
+      </c>
+      <c r="AB35">
+        <v>1.468</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="7"/>
+        <v>18.706250000000001</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="8"/>
+        <v>17.660039999999999</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="9"/>
+        <v>94.407163381222844</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="10"/>
+        <v>96.412544302719411</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="4"/>
+        <v>6.4059020000000029</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="5"/>
+        <v>31.405902000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="11:34" x14ac:dyDescent="0.35">
       <c r="K36" s="26"/>
+      <c r="Z36">
+        <v>6.4</v>
+      </c>
+      <c r="AA36">
+        <v>0.8</v>
+      </c>
+      <c r="AB36">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="7"/>
+        <v>23.944000000000003</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="8"/>
+        <v>21.918659999999999</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="9"/>
+        <v>91.541346475108583</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="10"/>
+        <v>93.053465286006187</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="4"/>
+        <v>12.476508000000011</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="5"/>
+        <v>37.47650800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="K37" s="26"/>
+      <c r="Z37">
+        <v>4.5</v>
+      </c>
+      <c r="AA37">
+        <v>1.18</v>
+      </c>
+      <c r="AB37">
+        <v>2.69</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="7"/>
+        <v>35.317399999999999</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="8"/>
+        <v>32.360699999999994</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="9"/>
+        <v>91.628205926823597</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="10"/>
+        <v>92.648914304757341</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="4"/>
+        <v>18.250940000000043</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="5"/>
+        <v>43.250940000000043</v>
+      </c>
+    </row>
+    <row r="38" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z38">
+        <v>3.5</v>
+      </c>
+      <c r="AA38">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="AB38">
+        <v>3.68</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="7"/>
+        <v>47.16968</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="8"/>
+        <v>44.270400000000002</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="9"/>
+        <v>93.853509288169874</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="10"/>
+        <v>94.634120689798905</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="4"/>
+        <v>17.894935999999998</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="5"/>
+        <v>42.894936000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Y39">
+        <v>16.25</v>
+      </c>
+      <c r="Z39">
+        <v>59.1</v>
+      </c>
+      <c r="AA39">
+        <v>0.17</v>
+      </c>
+      <c r="AB39">
+        <v>0.27</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" ref="AC39:AC75" si="11">X$3*AA39</f>
+        <v>5.0881000000000007</v>
+      </c>
+      <c r="AD39">
+        <f>Y$39*AB39</f>
+        <v>4.3875000000000002</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" ref="AE39" si="12">AD39/AC39*100</f>
+        <v>86.230616536624666</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" ref="AF39" si="13">AD39/(X$3*(AA39-W$3))*100</f>
+        <v>93.370731281695512</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="4"/>
+        <v>4.2631200000000042</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="5"/>
+        <v>29.263120000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z40">
+        <v>49</v>
+      </c>
+      <c r="AA40">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AB40">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="11"/>
+        <v>5.9560700000000004</v>
+      </c>
+      <c r="AD40">
+        <f>Y$39*AB40</f>
+        <v>5.2487500000000002</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" ref="AE40" si="14">AD40/AC40*100</f>
+        <v>88.124384031752484</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" ref="AF40" si="15">AD40/(X$3*(AA40-W$3))*100</f>
+        <v>94.283615173756687</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="4"/>
+        <v>4.3047840000000015</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="5"/>
+        <v>29.304784000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z41">
+        <v>41.9</v>
+      </c>
+      <c r="AA41">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="AB41">
+        <v>0.377</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="11"/>
+        <v>6.8539700000000003</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" ref="AD41:AD52" si="16">Y$39*AB41</f>
+        <v>6.1262499999999998</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" ref="AE41:AE52" si="17">AD41/AC41*100</f>
+        <v>89.382503862724803</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" ref="AF41:AF52" si="18">AD41/(X$3*(AA41-W$3))*100</f>
+        <v>94.762006410018444</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="4"/>
+        <v>4.4312640000000041</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="5"/>
+        <v>29.431264000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z42">
+        <v>37.1</v>
+      </c>
+      <c r="AA42">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AB42">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="11"/>
+        <v>7.6620800000000004</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="16"/>
+        <v>6.9387499999999998</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="17"/>
+        <v>90.559613055462734</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="18"/>
+        <v>95.404366017277624</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="4"/>
+        <v>4.4040460000000055</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="5"/>
+        <v>29.404046000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z43">
+        <v>30.3</v>
+      </c>
+      <c r="AA43">
+        <v>0.308</v>
+      </c>
+      <c r="AB43">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="11"/>
+        <v>9.2184399999999993</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="16"/>
+        <v>8.4662500000000005</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="17"/>
+        <v>91.840376462828871</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="18"/>
+        <v>95.887579493394199</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="4"/>
+        <v>4.5829779999999936</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="5"/>
+        <v>29.582977999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z44">
+        <v>24.3</v>
+      </c>
+      <c r="AA44">
+        <v>0.376</v>
+      </c>
+      <c r="AB44">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="11"/>
+        <v>11.253679999999999</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="16"/>
+        <v>10.481250000000001</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="17"/>
+        <v>93.136200780544684</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="18"/>
+        <v>96.471657006845192</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="4"/>
+        <v>4.7084659999999898</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="5"/>
+        <v>29.708465999999991</v>
+      </c>
+    </row>
+    <row r="45" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z45">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>0.45</v>
+      </c>
+      <c r="AB45">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="11"/>
+        <v>13.468500000000001</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="16"/>
+        <v>12.6425</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="17"/>
+        <v>93.867171548427805</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="18"/>
+        <v>96.659558802728867</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="4"/>
+        <v>5.040600000000004</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="5"/>
+        <v>30.040600000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z46">
+        <v>17.5</v>
+      </c>
+      <c r="AA46">
+        <v>0.52</v>
+      </c>
+      <c r="AB46">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="11"/>
+        <v>15.563600000000001</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="16"/>
+        <v>14.77125</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="17"/>
+        <v>94.908954226528564</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="18"/>
+        <v>97.342517155413915</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="4"/>
+        <v>4.8319700000000054</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="5"/>
+        <v>29.831970000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z47">
+        <v>14.8</v>
+      </c>
+      <c r="AA47">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="AB47">
+        <v>1.036</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="11"/>
+        <v>17.538979999999999</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="16"/>
+        <v>16.835000000000001</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="17"/>
+        <v>95.986197601000754</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="18"/>
+        <v>98.163894928772137</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="4"/>
+        <v>4.2840759999999767</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="5"/>
+        <v>29.284075999999978</v>
+      </c>
+    </row>
+    <row r="48" spans="11:34" x14ac:dyDescent="0.35">
+      <c r="Z48">
+        <v>12.9</v>
+      </c>
+      <c r="AA48">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="AB48">
+        <v>1.22</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="11"/>
+        <v>21.34009</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="16"/>
+        <v>19.824999999999999</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="17"/>
+        <v>92.900264244433828</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="18"/>
+        <v>94.62555486611619</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="4"/>
+        <v>9.3129579999999947</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="5"/>
+        <v>34.312957999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z49">
+        <v>10.3</v>
+      </c>
+      <c r="AA49">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="AB49">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="11"/>
+        <v>26.72749</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="16"/>
+        <v>24.748749999999998</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="17"/>
+        <v>92.596611204419105</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="18"/>
+        <v>93.964515688120755</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="4"/>
+        <v>12.187588000000002</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="5"/>
+        <v>37.187588000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z50">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AA50">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="AB50">
+        <v>1.9</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="11"/>
+        <v>33.461740000000006</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="16"/>
+        <v>30.875</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="17"/>
+        <v>92.269559204034195</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="18"/>
+        <v>93.355083429964026</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="4"/>
+        <v>15.95718800000005</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="5"/>
+        <v>40.957188000000052</v>
+      </c>
+    </row>
+    <row r="51" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z51">
+        <v>6.3</v>
+      </c>
+      <c r="AA51">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="AB51">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="11"/>
+        <v>46.630940000000002</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="16"/>
+        <v>42.688749999999999</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="17"/>
+        <v>91.545977842179454</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="18"/>
+        <v>92.316267623375779</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="4"/>
+        <v>24.360978000000035</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="5"/>
+        <v>49.360978000000031</v>
+      </c>
+    </row>
+    <row r="52" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA52">
+        <v>2.17</v>
+      </c>
+      <c r="AB52">
+        <v>3.778</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="11"/>
+        <v>64.948099999999997</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="16"/>
+        <v>61.392499999999998</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="17"/>
+        <v>94.525474956157311</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="18"/>
+        <v>95.095169520102601</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="4"/>
+        <v>21.964119999999959</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="5"/>
+        <v>46.964119999999959</v>
+      </c>
+    </row>
+    <row r="53" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Y53">
+        <v>19.13</v>
+      </c>
+      <c r="Z53">
+        <v>59</v>
+      </c>
+      <c r="AA53">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AB53">
+        <v>0.315</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="11"/>
+        <v>6.7941099999999999</v>
+      </c>
+      <c r="AD53">
+        <f>Y$53*AB53</f>
+        <v>6.0259499999999999</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" ref="AE53" si="19">AD53/AC53*100</f>
+        <v>88.693736192084032</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" ref="AF53" si="20">AD53/(X$3*(AA53-W$3))*100</f>
+        <v>94.081673437397555</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="4"/>
+        <v>4.6819920000000002</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="5"/>
+        <v>29.681992000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z54">
+        <v>48.3</v>
+      </c>
+      <c r="AA54">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AB54">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="11"/>
+        <v>8.1110300000000013</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" ref="AD54:AD64" si="21">Y$53*AB54</f>
+        <v>7.3650500000000001</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" ref="AE54:AE64" si="22">AD54/AC54*100</f>
+        <v>90.802894330313151</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" ref="AF54:AF64" si="23">AD54/(X$3*(AA54-W$3))*100</f>
+        <v>95.378233967111896</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="4"/>
+        <v>4.5444760000000084</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="5"/>
+        <v>29.54447600000001</v>
+      </c>
+    </row>
+    <row r="55" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z55">
+        <v>44.3</v>
+      </c>
+      <c r="AA55">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AB55">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="11"/>
+        <v>8.6198399999999999</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="21"/>
+        <v>7.9389499999999993</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="22"/>
+        <v>92.100897464454093</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="23"/>
+        <v>96.45475807186466</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="4"/>
+        <v>4.1409180000000045</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="5"/>
+        <v>29.140918000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z56">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AA56">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AB56">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="11"/>
+        <v>9.8170400000000004</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="21"/>
+        <v>9.1441399999999984</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="22"/>
+        <v>93.145591746595684</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="23"/>
+        <v>96.989695532963154</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="4"/>
+        <v>4.0913800000000133</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="5"/>
+        <v>29.091380000000015</v>
+      </c>
+    </row>
+    <row r="57" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z57">
+        <v>33.5</v>
+      </c>
+      <c r="AA57">
+        <v>0.375</v>
+      </c>
+      <c r="AB57">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="11"/>
+        <v>11.223749999999999</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="21"/>
+        <v>10.502370000000001</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="22"/>
+        <v>93.572736384898121</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="23"/>
+        <v>96.933083271648584</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="4"/>
+        <v>4.3919559999999889</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="5"/>
+        <v>29.39195599999999</v>
+      </c>
+    </row>
+    <row r="58" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z58">
+        <v>28.6</v>
+      </c>
+      <c r="AA58">
+        <v>0.433</v>
+      </c>
+      <c r="AB58">
+        <v>0.64</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="11"/>
+        <v>12.95969</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="21"/>
+        <v>12.2432</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="22"/>
+        <v>94.471395534924056</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="23"/>
+        <v>97.395510158624106</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="4"/>
+        <v>4.3616380000000028</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="5"/>
+        <v>29.361638000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z59">
+        <v>23.4</v>
+      </c>
+      <c r="AA59">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AB59">
+        <v>0.78</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="11"/>
+        <v>15.62346</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="21"/>
+        <v>14.9214</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="22"/>
+        <v>95.506373108133545</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="23"/>
+        <v>97.94563214625876</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="4"/>
+        <v>4.2721719999999976</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="5"/>
+        <v>29.272171999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z60">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AA60">
+        <v>0.6</v>
+      </c>
+      <c r="AB60">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="11"/>
+        <v>17.957999999999998</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="21"/>
+        <v>17.14048</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="22"/>
+        <v>95.447599955451622</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="23"/>
+        <v>97.561430959575759</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="4"/>
+        <v>4.9880239999999789</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="5"/>
+        <v>29.988023999999978</v>
+      </c>
+    </row>
+    <row r="61" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z61">
+        <v>14.7</v>
+      </c>
+      <c r="AA61">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="AB61">
+        <v>1.266</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="11"/>
+        <v>25.081339999999997</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="21"/>
+        <v>24.218579999999999</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="22"/>
+        <v>96.560151889811323</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="23"/>
+        <v>98.081705798378039</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" si="4"/>
+        <v>5.2685119999999772</v>
+      </c>
+      <c r="AH61">
+        <f t="shared" si="5"/>
+        <v>30.268511999999976</v>
+      </c>
+    </row>
+    <row r="62" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z62">
+        <v>12</v>
+      </c>
+      <c r="AA62">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="AB62">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="11"/>
+        <v>29.959929999999996</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="21"/>
+        <v>28.943689999999997</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="22"/>
+        <v>96.608002755680673</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="23"/>
+        <v>97.879160686676471</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="4"/>
+        <v>6.220087999999989</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="5"/>
+        <v>31.22008799999999</v>
+      </c>
+    </row>
+    <row r="63" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z63">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AA63">
+        <v>1.258</v>
+      </c>
+      <c r="AB63">
+        <v>1.9</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="11"/>
+        <v>37.651940000000003</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="21"/>
+        <v>36.346999999999994</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="22"/>
+        <v>96.534202487308733</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="23"/>
+        <v>97.542190143802713</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" si="4"/>
+        <v>8.0100280000000676</v>
+      </c>
+      <c r="AH63">
+        <f t="shared" si="5"/>
+        <v>33.010028000000069</v>
+      </c>
+    </row>
+    <row r="64" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z64">
+        <v>8</v>
+      </c>
+      <c r="AA64">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="AB64">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="11"/>
+        <v>46.062269999999998</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="21"/>
+        <v>44.630290000000002</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="22"/>
+        <v>96.891208357729667</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="23"/>
+        <v>97.716624942690657</v>
+      </c>
+      <c r="AG64">
+        <f t="shared" si="4"/>
+        <v>8.7976759999999867</v>
+      </c>
+      <c r="AH64">
+        <f t="shared" si="5"/>
+        <v>33.797675999999989</v>
+      </c>
+    </row>
+    <row r="65" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z65">
+        <v>6.5</v>
+      </c>
+      <c r="AA65">
+        <v>1.972</v>
+      </c>
+      <c r="AB65">
+        <v>2.9540000000000002</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="11"/>
+        <v>59.02196</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" ref="AD65:AD66" si="24">Y$53*AB65</f>
+        <v>56.510019999999997</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" ref="AE65:AE66" si="25">AD65/AC65*100</f>
+        <v>95.744058652067793</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" ref="AF65:AF66" si="26">AD65/(X$3*(AA65-W$3))*100</f>
+        <v>96.379419939702743</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" si="4"/>
+        <v>15.493428000000028</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="5"/>
+        <v>40.49342800000003</v>
+      </c>
+    </row>
+    <row r="66" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z66">
+        <v>5.6</v>
+      </c>
+      <c r="AA66">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="AB66">
+        <v>3.512</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="11"/>
+        <v>71.023890000000009</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="24"/>
+        <v>67.184559999999991</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="25"/>
+        <v>94.594311857601681</v>
+      </c>
+      <c r="AF66">
+        <f t="shared" si="26"/>
+        <v>95.115382219529153</v>
+      </c>
+      <c r="AG66">
+        <f t="shared" si="4"/>
+        <v>23.723246000000081</v>
+      </c>
+      <c r="AH66">
+        <f t="shared" si="5"/>
+        <v>48.723246000000081</v>
+      </c>
+    </row>
+    <row r="67" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Y67">
+        <v>23.85</v>
+      </c>
+      <c r="Z67">
+        <v>59.6</v>
+      </c>
+      <c r="AA67">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AB67">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="11"/>
+        <v>10.086410000000001</v>
+      </c>
+      <c r="AD67">
+        <f>Y$67*AB67</f>
+        <v>9.4207500000000017</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" ref="AE67" si="27">AD67/AC67*100</f>
+        <v>93.40042691106153</v>
+      </c>
+      <c r="AF67">
+        <f t="shared" ref="AF67" si="28">AD67/(X$3*(AA67-W$3))*100</f>
+        <v>97.147974904406595</v>
+      </c>
+      <c r="AG67">
+        <f t="shared" si="4"/>
+        <v>4.0464919999999944</v>
+      </c>
+      <c r="AH67">
+        <f t="shared" si="5"/>
+        <v>29.046491999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z68">
+        <v>49.4</v>
+      </c>
+      <c r="AA68">
+        <v>0.4</v>
+      </c>
+      <c r="AB68">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="11"/>
+        <v>11.972000000000001</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" ref="AD68:AD75" si="29">Y$67*AB68</f>
+        <v>11.3049</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" ref="AE68:AE75" si="30">AD68/AC68*100</f>
+        <v>94.427831607083178</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" ref="AF68:AF75" si="31">AD68/(X$3*(AA68-W$3))*100</f>
+        <v>97.599825950473587</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" ref="AG68:AG81" si="32">((X$3*AA68-W$3)-AD68)*6.2</f>
+        <v>4.0554200000000096</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" ref="AH68:AH81" si="33">AG68+25</f>
+        <v>29.055420000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z69">
+        <v>44.6</v>
+      </c>
+      <c r="AA69">
+        <v>0.441</v>
+      </c>
+      <c r="AB69">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="11"/>
+        <v>13.19913</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="29"/>
+        <v>12.449700000000002</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="30"/>
+        <v>94.322125776471637</v>
+      </c>
+      <c r="AF69">
+        <f t="shared" si="31"/>
+        <v>97.18705015753271</v>
+      </c>
+      <c r="AG69">
+        <f t="shared" si="32"/>
+        <v>4.5658659999999918</v>
+      </c>
+      <c r="AH69">
+        <f t="shared" si="33"/>
+        <v>29.565865999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z70">
+        <v>38.6</v>
+      </c>
+      <c r="AA70">
+        <v>0.505</v>
+      </c>
+      <c r="AB70">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="11"/>
+        <v>15.114649999999999</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="29"/>
+        <v>14.357700000000001</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="30"/>
+        <v>94.991944901138964</v>
+      </c>
+      <c r="AF70">
+        <f t="shared" si="31"/>
+        <v>97.501894664786946</v>
+      </c>
+      <c r="AG70">
+        <f t="shared" si="32"/>
+        <v>4.6124899999999887</v>
+      </c>
+      <c r="AH70">
+        <f t="shared" si="33"/>
+        <v>29.612489999999987</v>
+      </c>
+    </row>
+    <row r="71" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z71">
+        <v>34.1</v>
+      </c>
+      <c r="AA71">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB71">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="11"/>
+        <v>17.060099999999998</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="29"/>
+        <v>16.265700000000002</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="30"/>
+        <v>95.343520846888367</v>
+      </c>
+      <c r="AF71">
+        <f t="shared" si="31"/>
+        <v>97.568773577605697</v>
+      </c>
+      <c r="AG71">
+        <f t="shared" si="32"/>
+        <v>4.8446799999999648</v>
+      </c>
+      <c r="AH71">
+        <f t="shared" si="33"/>
+        <v>29.844679999999965</v>
+      </c>
+    </row>
+    <row r="72" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z72">
+        <v>29.6</v>
+      </c>
+      <c r="AA72">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="AB72">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="11"/>
+        <v>19.48443</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="29"/>
+        <v>18.722250000000003</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="30"/>
+        <v>96.088261242438207</v>
+      </c>
+      <c r="AF72">
+        <f t="shared" si="31"/>
+        <v>98.04617252167283</v>
+      </c>
+      <c r="AG72">
+        <f t="shared" si="32"/>
+        <v>4.6449159999999727</v>
+      </c>
+      <c r="AH72">
+        <f t="shared" si="33"/>
+        <v>29.644915999999974</v>
+      </c>
+    </row>
+    <row r="73" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z73">
+        <v>25.7</v>
+      </c>
+      <c r="AA73">
+        <v>0.747</v>
+      </c>
+      <c r="AB73">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="11"/>
+        <v>22.357710000000001</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" si="29"/>
+        <v>21.584250000000001</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="30"/>
+        <v>96.540522262789892</v>
+      </c>
+      <c r="AF73">
+        <f t="shared" si="31"/>
+        <v>98.250368024937401</v>
+      </c>
+      <c r="AG73">
+        <f t="shared" si="32"/>
+        <v>4.7148519999999898</v>
+      </c>
+      <c r="AH73">
+        <f t="shared" si="33"/>
+        <v>29.71485199999999</v>
+      </c>
+    </row>
+    <row r="74" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z74">
+        <v>20.5</v>
+      </c>
+      <c r="AA74">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="AB74">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="11"/>
+        <v>27.864830000000001</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="29"/>
+        <v>26.950499999999998</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="30"/>
+        <v>96.718695215438231</v>
+      </c>
+      <c r="AF74">
+        <f t="shared" si="31"/>
+        <v>98.088349940711311</v>
+      </c>
+      <c r="AG74">
+        <f t="shared" si="32"/>
+        <v>5.5882460000000096</v>
+      </c>
+      <c r="AH74">
+        <f t="shared" si="33"/>
+        <v>30.588246000000009</v>
+      </c>
+    </row>
+    <row r="75" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z75">
+        <v>17.8</v>
+      </c>
+      <c r="AA75">
+        <v>1.069</v>
+      </c>
+      <c r="AB75">
+        <v>1.3</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="11"/>
+        <v>31.995169999999998</v>
+      </c>
+      <c r="AD75">
+        <f t="shared" si="29"/>
+        <v>31.005000000000003</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" si="30"/>
+        <v>96.905251636418882</v>
+      </c>
+      <c r="AF75">
+        <f t="shared" si="31"/>
+        <v>98.098214014518732</v>
+      </c>
+      <c r="AG75">
+        <f t="shared" si="32"/>
+        <v>6.058453999999962</v>
+      </c>
+      <c r="AH75">
+        <f t="shared" si="33"/>
+        <v>31.058453999999962</v>
+      </c>
+    </row>
+    <row r="76" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z76">
+        <v>15.3</v>
+      </c>
+      <c r="AA76">
+        <v>1.246</v>
+      </c>
+      <c r="AB76">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" ref="AC76:AC81" si="34">X$3*AA76</f>
+        <v>37.29278</v>
+      </c>
+      <c r="AD76">
+        <f t="shared" ref="AD76:AD81" si="35">Y$67*AB76</f>
+        <v>36.18045</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" ref="AE76:AE81" si="36">AD76/AC76*100</f>
+        <v>97.017304690076728</v>
+      </c>
+      <c r="AF76">
+        <f t="shared" ref="AF76:AF81" si="37">AD76/(X$3*(AA76-W$3))*100</f>
+        <v>98.040195980401947</v>
+      </c>
+      <c r="AG76">
+        <f t="shared" si="32"/>
+        <v>6.8158460000000121</v>
+      </c>
+      <c r="AH76">
+        <f t="shared" si="33"/>
+        <v>31.815846000000011</v>
+      </c>
+    </row>
+    <row r="77" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z77">
+        <v>13.4</v>
+      </c>
+      <c r="AA77">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="AB77">
+        <v>1.7410000000000001</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="34"/>
+        <v>42.859759999999994</v>
+      </c>
+      <c r="AD77">
+        <f t="shared" si="35"/>
+        <v>41.522850000000005</v>
+      </c>
+      <c r="AE77">
+        <f t="shared" si="36"/>
+        <v>96.880733816521627</v>
+      </c>
+      <c r="AF77">
+        <f t="shared" si="37"/>
+        <v>97.768295155221253</v>
+      </c>
+      <c r="AG77">
+        <f t="shared" si="32"/>
+        <v>8.2082419999999434</v>
+      </c>
+      <c r="AH77">
+        <f t="shared" si="33"/>
+        <v>33.208241999999942</v>
+      </c>
+    </row>
+    <row r="78" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z78">
+        <v>11.3</v>
+      </c>
+      <c r="AA78">
+        <v>1.698</v>
+      </c>
+      <c r="AB78">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="34"/>
+        <v>50.82114</v>
+      </c>
+      <c r="AD78">
+        <f t="shared" si="35"/>
+        <v>49.154850000000003</v>
+      </c>
+      <c r="AE78">
+        <f t="shared" si="36"/>
+        <v>96.721265992852594</v>
+      </c>
+      <c r="AF78">
+        <f t="shared" si="37"/>
+        <v>97.467483475290024</v>
+      </c>
+      <c r="AG78">
+        <f t="shared" si="32"/>
+        <v>10.25039799999999</v>
+      </c>
+      <c r="AH78">
+        <f t="shared" si="33"/>
+        <v>35.25039799999999</v>
+      </c>
+    </row>
+    <row r="79" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z79">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AA79">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="AB79">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="34"/>
+        <v>64.768520000000009</v>
+      </c>
+      <c r="AD79">
+        <f t="shared" si="35"/>
+        <v>62.27235000000001</v>
+      </c>
+      <c r="AE79">
+        <f t="shared" si="36"/>
+        <v>96.146013526324211</v>
+      </c>
+      <c r="AF79">
+        <f t="shared" si="37"/>
+        <v>96.727091246381022</v>
+      </c>
+      <c r="AG79">
+        <f t="shared" si="32"/>
+        <v>15.395653999999963</v>
+      </c>
+      <c r="AH79">
+        <f t="shared" si="33"/>
+        <v>40.395653999999965</v>
+      </c>
+    </row>
+    <row r="80" spans="25:34" x14ac:dyDescent="0.35">
+      <c r="Z80">
+        <v>7.8</v>
+      </c>
+      <c r="AA80">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="AB80">
+        <v>3.11</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="34"/>
+        <v>77.698279999999997</v>
+      </c>
+      <c r="AD80">
+        <f t="shared" si="35"/>
+        <v>74.173500000000004</v>
+      </c>
+      <c r="AE80">
+        <f t="shared" si="36"/>
+        <v>95.463503181795033</v>
+      </c>
+      <c r="AF80">
+        <f t="shared" si="37"/>
+        <v>95.943962160255467</v>
+      </c>
+      <c r="AG80">
+        <f t="shared" si="32"/>
+        <v>21.773035999999923</v>
+      </c>
+      <c r="AH80">
+        <f t="shared" si="33"/>
+        <v>46.773035999999919</v>
+      </c>
+    </row>
+    <row r="81" spans="26:34" x14ac:dyDescent="0.35">
+      <c r="Z81">
+        <v>6.7</v>
+      </c>
+      <c r="AA81">
+        <v>3.2</v>
+      </c>
+      <c r="AB81">
+        <v>3.8</v>
+      </c>
+      <c r="AC81">
+        <f t="shared" si="34"/>
+        <v>95.77600000000001</v>
+      </c>
+      <c r="AD81">
+        <f t="shared" si="35"/>
+        <v>90.63</v>
+      </c>
+      <c r="AE81">
+        <f t="shared" si="36"/>
+        <v>94.627046441697289</v>
+      </c>
+      <c r="AF81">
+        <f t="shared" si="37"/>
+        <v>95.01303690412027</v>
+      </c>
+      <c r="AG81">
+        <f t="shared" si="32"/>
+        <v>31.824600000000061</v>
+      </c>
+      <c r="AH81">
+        <f t="shared" si="33"/>
+        <v>56.824600000000061</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
